--- a/release_notes/LEGREF/LEGREF_12.0_vs_11.9.xlsx
+++ b/release_notes/LEGREF/LEGREF_12.0_vs_11.9.xlsx
@@ -668,43 +668,14 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="8" customWidth="1" min="1" max="1"/>
-    <col width="8" customWidth="1" min="2" max="2"/>
-    <col width="10" customWidth="1" min="3" max="3"/>
-    <col width="10" customWidth="1" min="4" max="4"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="4" t="inlineStr">
-        <is>
-          <t>Code</t>
-        </is>
-      </c>
-      <c r="B1" s="4" t="inlineStr">
-        <is>
-          <t>Change</t>
-        </is>
-      </c>
-      <c r="C1" s="4" t="inlineStr">
-        <is>
-          <t>OldValue</t>
-        </is>
-      </c>
-      <c r="D1" s="4" t="inlineStr">
-        <is>
-          <t>NewValue</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
